--- a/ig/ft/#3-narrative/StructureDefinition-cds-bundle-transaction-maj.xlsx
+++ b/ig/ft/#3-narrative/StructureDefinition-cds-bundle-transaction-maj.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T16:32:02+00:00</t>
+    <t>2023-06-02T16:07:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
